--- a/Results/PCA/SummaryLoadingsPC1_log2TMM_annotated.xlsx
+++ b/Results/PCA/SummaryLoadingsPC1_log2TMM_annotated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michellemeier/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michellemeier/RocheAnalysisTask/Results/PCA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2972468-4743-DB4A-AD8F-CFAEDC31DE22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4971184-459F-3843-8C84-37CF6E7CB154}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14700" xr2:uid="{6E9C0FA9-2F4A-DA46-A05D-AA2A6035595B}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14680" xr2:uid="{6E9C0FA9-2F4A-DA46-A05D-AA2A6035595B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{C015ECC4-FB7B-FB4E-BADF-25141B68BB09}" name="SummaryLoadingsPC1_log2TMM" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/michellemeier/RocheAnalysisTask/Results/PCA/SummaryLoadingsPC1_log2TMM.csv" thousands="'" comma="1">
+    <textPr sourceFile="/Users/michellemeier/RocheAnalysisTask/Results/PCA/SummaryLoadingsPC1_log2TMM.csv" thousands="'" comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>Loading</t>
   </si>
@@ -163,34 +163,16 @@
     <t>https://www.proteinatlas.org/ENSG00000133048-CHI3L1</t>
   </si>
   <si>
-    <t>Cancer related</t>
-  </si>
-  <si>
-    <t>yes (colorectal)</t>
-  </si>
-  <si>
-    <t>yes (head and neck)</t>
-  </si>
-  <si>
-    <t>yes (glioma)</t>
-  </si>
-  <si>
     <t>3-hydroxy-3-methylglutaryl-CoA synthase 2</t>
   </si>
   <si>
     <t>https://www.proteinatlas.org/ENSG00000134240-HMGCS2</t>
   </si>
   <si>
-    <t>yes (liver)</t>
-  </si>
-  <si>
     <t>Dual oxidase maturation factor 2</t>
   </si>
   <si>
     <t>https://www.proteinatlas.org/ENSG00000140274-DUOXA2</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>Dual oxidase 2</t>
@@ -580,11 +562,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33ACD524-BE70-F342-8D6C-D5D5788A9A19}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -593,11 +575,11 @@
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.1640625" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="46.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,11 +598,8 @@
       <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -642,11 +621,8 @@
       <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -668,11 +644,8 @@
       <c r="G3" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -694,11 +667,8 @@
       <c r="G4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -720,11 +690,8 @@
       <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -741,16 +708,13 @@
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -767,16 +731,13 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -793,16 +754,13 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -819,16 +777,13 @@
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -845,16 +800,13 @@
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -871,13 +823,10 @@
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
